--- a/참고자료/학생정보테이블2020.07.21 - 복사본.xlsx
+++ b/참고자료/학생정보테이블2020.07.21 - 복사본.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\sql\참고자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\dbms\참고자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보 (2)" sheetId="1" r:id="rId1"/>
@@ -1780,7 +1780,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="str">
         <f>VLOOKUP(G3,학과정보!$A$1:$B$5,2)</f>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="e">
         <f>VLOOKUP(G4,학과정보!$A$1:$B$5,2)</f>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="str">
         <f>VLOOKUP(G5,학과정보!$A$1:$B$5,2)</f>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="str">
         <f>VLOOKUP(G6,학과정보!$A$1:$B$5,2)</f>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="str">
         <f>VLOOKUP(G7,학과정보!$A$1:$B$5,2)</f>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="str">
         <f>VLOOKUP(G9,학과정보!$A$1:$B$5,2)</f>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="str">
         <f>VLOOKUP(G10,학과정보!$A$1:$B$5,2)</f>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" t="str">
         <f>VLOOKUP(G11,학과정보!$A$1:$B$5,2)</f>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="str">
         <f>VLOOKUP(G12,학과정보!$A$1:$B$5,2)</f>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="str">
         <f>VLOOKUP(G14,학과정보!$A$1:$B$5,2)</f>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" t="str">
         <f>VLOOKUP(G15,학과정보!$A$1:$B$5,2)</f>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="str">
         <f>VLOOKUP(G16,학과정보!$A$1:$B$5,2)</f>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="str">
         <f>VLOOKUP(G18,학과정보!$A$1:$B$5,2)</f>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="str">
         <f>VLOOKUP(G19,학과정보!$A$1:$B$5,2)</f>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="str">
         <f>VLOOKUP(G21,학과정보!$A$1:$B$5,2)</f>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="str">
         <f>VLOOKUP(G24,학과정보!$A$1:$B$5,2)</f>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="str">
         <f>VLOOKUP(G26,학과정보!$A$1:$B$5,2)</f>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="str">
         <f>VLOOKUP(G27,학과정보!$A$1:$B$5,2)</f>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="str">
         <f>VLOOKUP(G28,학과정보!$A$1:$B$5,2)</f>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="e">
         <f>VLOOKUP(G29,학과정보!$A$1:$B$5,2)</f>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="e">
         <f>VLOOKUP(G30,학과정보!$A$1:$B$5,2)</f>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="str">
         <f>VLOOKUP(G32,학과정보!$A$1:$B$5,2)</f>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" t="str">
         <f>VLOOKUP(G33,학과정보!$A$1:$B$5,2)</f>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" t="str">
         <f>VLOOKUP(G34,학과정보!$A$1:$B$5,2)</f>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" t="str">
         <f>VLOOKUP(G35,학과정보!$A$1:$B$5,2)</f>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" t="str">
         <f>VLOOKUP(G39,학과정보!$A$1:$B$5,2)</f>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="str">
         <f>VLOOKUP(G40,학과정보!$A$1:$B$5,2)</f>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" t="str">
         <f>VLOOKUP(G41,학과정보!$A$1:$B$5,2)</f>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="str">
         <f>VLOOKUP(G42,학과정보!$A$1:$B$5,2)</f>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F45" t="str">
         <f>VLOOKUP(G45,학과정보!$A$1:$B$5,2)</f>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="str">
         <f>VLOOKUP(G46,학과정보!$A$1:$B$5,2)</f>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" t="e">
         <f>VLOOKUP(G47,학과정보!$A$1:$B$5,2)</f>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="str">
         <f>VLOOKUP(G48,학과정보!$A$1:$B$5,2)</f>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" t="str">
         <f>VLOOKUP(G50,학과정보!$A$1:$B$5,2)</f>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="str">
         <f>VLOOKUP(G51,학과정보!$A$1:$B$5,2)</f>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="str">
         <f>VLOOKUP(G52,학과정보!$A$1:$B$5,2)</f>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" t="str">
         <f>VLOOKUP(G53,학과정보!$A$1:$B$5,2)</f>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" t="str">
         <f>VLOOKUP(G54,학과정보!$A$1:$B$5,2)</f>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F55" t="str">
         <f>VLOOKUP(G55,학과정보!$A$1:$B$5,2)</f>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F56" t="str">
         <f>VLOOKUP(G56,학과정보!$A$1:$B$5,2)</f>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57" t="str">
         <f>VLOOKUP(G57,학과정보!$A$1:$B$5,2)</f>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58" t="str">
         <f>VLOOKUP(G58,학과정보!$A$1:$B$5,2)</f>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F64" t="str">
         <f>VLOOKUP(G64,학과정보!$A$1:$B$5,2)</f>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" t="e">
         <f>VLOOKUP(G66,학과정보!$A$1:$B$5,2)</f>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" t="str">
         <f>VLOOKUP(G70,학과정보!$A$1:$B$5,2)</f>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F74" t="str">
         <f>VLOOKUP(G74,학과정보!$A$1:$B$5,2)</f>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F75" t="e">
         <f>VLOOKUP(G75,학과정보!$A$1:$B$5,2)</f>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="str">
         <f>VLOOKUP(G77,학과정보!$A$1:$B$5,2)</f>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" t="str">
         <f>VLOOKUP(G78,학과정보!$A$1:$B$5,2)</f>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" t="str">
         <f>VLOOKUP(G79,학과정보!$A$1:$B$5,2)</f>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" t="str">
         <f>VLOOKUP(G80,학과정보!$A$1:$B$5,2)</f>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F82" t="str">
         <f>VLOOKUP(G82,학과정보!$A$1:$B$5,2)</f>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F83" t="str">
         <f>VLOOKUP(G83,학과정보!$A$1:$B$5,2)</f>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="str">
         <f>VLOOKUP(G84,학과정보!$A$1:$B$5,2)</f>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="str">
         <f>VLOOKUP(G85,학과정보!$A$1:$B$5,2)</f>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F86" t="str">
         <f>VLOOKUP(G86,학과정보!$A$1:$B$5,2)</f>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" t="str">
         <f>VLOOKUP(G87,학과정보!$A$1:$B$5,2)</f>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F89" t="str">
         <f>VLOOKUP(G89,학과정보!$A$1:$B$5,2)</f>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F90" t="str">
         <f>VLOOKUP(G90,학과정보!$A$1:$B$5,2)</f>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="str">
         <f>VLOOKUP(G91,학과정보!$A$1:$B$5,2)</f>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F92" t="str">
         <f>VLOOKUP(G92,학과정보!$A$1:$B$5,2)</f>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="str">
         <f>VLOOKUP(G93,학과정보!$A$1:$B$5,2)</f>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="str">
         <f>VLOOKUP(G94,학과정보!$A$1:$B$5,2)</f>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F96" t="str">
         <f>VLOOKUP(G96,학과정보!$A$1:$B$5,2)</f>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" t="str">
         <f>VLOOKUP(G97,학과정보!$A$1:$B$5,2)</f>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F98" t="str">
         <f>VLOOKUP(G98,학과정보!$A$1:$B$5,2)</f>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F99" t="str">
         <f>VLOOKUP(G99,학과정보!$A$1:$B$5,2)</f>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" t="e">
         <f>VLOOKUP(G100,학과정보!$A$1:$B$5,2)</f>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F101" t="str">
         <f>VLOOKUP(G101,학과정보!$A$1:$B$5,2)</f>
@@ -4326,7 +4326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
@@ -4366,23 +4366,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F17" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4391,23 +4391,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:F34" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4416,23 +4416,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4441,23 +4441,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
         <v>61</v>
       </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4466,23 +4466,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4491,23 +4491,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4516,23 +4516,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4541,23 +4541,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4566,23 +4566,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4591,23 +4591,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4616,23 +4616,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4641,23 +4641,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -4666,23 +4666,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -4691,23 +4691,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -4716,23 +4716,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -4741,23 +4741,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -4766,23 +4766,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4791,23 +4791,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4816,23 +4816,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4841,23 +4841,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4866,23 +4866,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4891,23 +4891,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4916,23 +4916,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="1"/>
         <v>99</v>
       </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>81</v>
-      </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4941,19 +4941,19 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
@@ -4966,23 +4966,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4991,23 +4991,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5016,23 +5016,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -5041,23 +5041,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -5066,23 +5066,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -5091,23 +5091,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
         <v>93</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="1"/>
-        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5116,23 +5116,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5141,23 +5141,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5166,11 +5166,11 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
@@ -5178,11 +5178,11 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5191,23 +5191,23 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F66" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5216,23 +5216,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
         <v>70</v>
       </c>
-      <c r="C36">
-        <f t="shared" ca="1" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="2"/>
-        <v>61</v>
-      </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5241,23 +5241,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5266,23 +5266,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5291,23 +5291,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5316,23 +5316,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -5341,23 +5341,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
@@ -5374,15 +5374,15 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5391,23 +5391,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5416,23 +5416,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
         <v>85</v>
       </c>
-      <c r="D44">
-        <f t="shared" ca="1" si="2"/>
-        <v>67</v>
-      </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5441,23 +5441,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5466,23 +5466,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5491,23 +5491,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="2"/>
         <v>79</v>
       </c>
-      <c r="C47">
-        <f t="shared" ca="1" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="D47">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="2"/>
-        <v>89</v>
-      </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5516,23 +5516,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -5541,23 +5541,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -5566,23 +5566,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5591,23 +5591,23 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -5616,23 +5616,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5641,23 +5641,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -5666,23 +5666,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5691,23 +5691,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5716,23 +5716,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -5741,23 +5741,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -5766,23 +5766,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5791,23 +5791,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="2"/>
         <v>95</v>
       </c>
-      <c r="D59">
-        <f t="shared" ca="1" si="2"/>
-        <v>72</v>
-      </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
-      </c>
-      <c r="F59">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -5816,11 +5816,11 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
@@ -5828,11 +5828,11 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5841,23 +5841,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -5866,23 +5866,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -5891,23 +5891,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5916,23 +5916,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5941,23 +5941,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -5966,23 +5966,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="2"/>
         <v>79</v>
-      </c>
-      <c r="C66">
-        <f t="shared" ca="1" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="D66">
-        <f t="shared" ca="1" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ca="1" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="F66">
-        <f t="shared" ca="1" si="2"/>
-        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -5991,23 +5991,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F101" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -6016,23 +6016,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -6041,15 +6041,15 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="3"/>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6066,23 +6066,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -6091,23 +6091,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -6116,23 +6116,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -6141,23 +6141,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -6166,23 +6166,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="3"/>
@@ -6199,15 +6199,15 @@
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -6216,23 +6216,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -6241,23 +6241,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -6266,23 +6266,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -6291,23 +6291,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -6316,15 +6316,15 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="3"/>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -6340,24 +6340,24 @@
         <v>88</v>
       </c>
       <c r="B81">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>77</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -6366,23 +6366,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -6391,23 +6391,23 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="3"/>
         <v>82</v>
       </c>
-      <c r="C83">
-        <f t="shared" ca="1" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="D83">
-        <f t="shared" ca="1" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="E83">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
-      </c>
       <c r="F83">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -6416,23 +6416,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -6441,23 +6441,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6466,19 +6466,19 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="3"/>
@@ -6491,23 +6491,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -6516,23 +6516,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6541,23 +6541,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
-      <c r="D89">
-        <f t="shared" ca="1" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="E89">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
-      </c>
       <c r="F89">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6570,15 +6570,15 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="3"/>
@@ -6591,15 +6591,15 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="3"/>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -6616,23 +6616,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -6641,23 +6641,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6666,23 +6666,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="3"/>
         <v>100</v>
       </c>
-      <c r="C94">
-        <f t="shared" ca="1" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="D94">
-        <f t="shared" ca="1" si="3"/>
-        <v>61</v>
-      </c>
       <c r="E94">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -6691,23 +6691,23 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -6716,23 +6716,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="3"/>
         <v>97</v>
       </c>
-      <c r="D96">
-        <f t="shared" ca="1" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="E96">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
-      </c>
       <c r="F96">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -6741,11 +6741,11 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="3"/>
@@ -6753,11 +6753,11 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -6766,23 +6766,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -6791,23 +6791,23 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
-      <c r="D99">
-        <f t="shared" ca="1" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="E99">
-        <f t="shared" ca="1" si="3"/>
-        <v>59</v>
-      </c>
       <c r="F99">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -6816,23 +6816,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -6841,23 +6841,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6870,8 +6870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"062"&amp;TEXT(RANDBETWEEN(333333,999999),"-000-0000")</f>
-        <v>062-037-4293</v>
+        <v>062-063-7771</v>
       </c>
       <c r="F2" t="s">
         <v>440</v>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(333333,999999),"-000-0000")</f>
-        <v>062-087-8755</v>
+        <v>062-078-6396</v>
       </c>
       <c r="F3" t="s">
         <v>441</v>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-059-2297</v>
+        <v>062-076-6345</v>
       </c>
       <c r="F4" t="s">
         <v>442</v>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-072-2065</v>
+        <v>062-041-9207</v>
       </c>
       <c r="F5" t="s">
         <v>443</v>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-062-3157</v>
+        <v>062-074-9161</v>
       </c>
       <c r="F6" t="s">
         <v>444</v>
